--- a/Documentação do Projeto/PBL - Noctoramento.xlsx
+++ b/Documentação do Projeto/PBL - Noctoramento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pehso\OneDrive\sptech\Sp-tech\Ads2\LP\lista-03-metodos-PedroHPCSouza-1\Área de Trabalho\NocTotamento\Documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbbbc15b312a8d85/sptech/Sp-tech/Ads2/LP/lista-03-metodos-PedroHPCSouza-1/Área de Trabalho/NocTotamento/Documentacao/Documentação do Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEAEB28-9F87-4258-9A6D-D311B8FD6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{BCEAEB28-9F87-4258-9A6D-D311B8FD6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A93CAD0-2F08-4F8B-AC62-DBB07D87DD4B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B0DD404-9F6F-4CBF-B326-486AA060C181}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="138">
   <si>
     <t>Descrição</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>representação visual que mostra os passos necessários para resolver um problema ou alcançar um objetivo. Ele ajuda a organizar informações de forma clara e sequencial, facilitando a identificação de falhas, otimização de processos e comunicação eficaz entre equipes.</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
   <si>
     <t>Dashboard Estático</t>
@@ -727,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,14 +769,13 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,10 +1165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,41 +1202,41 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1248,7 +1245,7 @@
       <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="14" t="s">
@@ -1257,16 +1254,16 @@
       <c r="I4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -1275,7 +1272,7 @@
       <c r="F5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="14" t="s">
@@ -1286,14 +1283,14 @@
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>86</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -1302,7 +1299,7 @@
       <c r="F6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="14" t="s">
@@ -1313,14 +1310,14 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>87</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -1329,7 +1326,7 @@
       <c r="F7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="14" t="s">
@@ -1340,14 +1337,14 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -1356,7 +1353,7 @@
       <c r="F8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="14" t="s">
@@ -1367,14 +1364,14 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -1383,7 +1380,7 @@
       <c r="F9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -1394,14 +1391,14 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>90</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -1410,7 +1407,7 @@
       <c r="F10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="14" t="s">
@@ -1421,23 +1418,23 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="14" t="s">
@@ -1448,14 +1445,14 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>92</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -1464,7 +1461,7 @@
       <c r="F12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="14" t="s">
@@ -1475,14 +1472,14 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>93</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -1491,7 +1488,7 @@
       <c r="F13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="14" t="s">
@@ -1502,14 +1499,14 @@
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>94</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -1518,7 +1515,7 @@
       <c r="F14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="14" t="s">
@@ -1529,14 +1526,14 @@
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="13" t="s">
@@ -1545,7 +1542,7 @@
       <c r="F15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="14" t="s">
@@ -1556,23 +1553,23 @@
       </c>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="14" t="s">
@@ -1583,23 +1580,23 @@
       </c>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="14" t="s">
@@ -1610,7 +1607,7 @@
       </c>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="2:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
@@ -1620,13 +1617,13 @@
       <c r="D18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="14" t="s">
@@ -1635,9 +1632,9 @@
       <c r="I18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="2:17" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>54</v>
       </c>
@@ -1647,13 +1644,13 @@
       <c r="D19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="14" t="s">
@@ -1662,26 +1659,26 @@
       <c r="I19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="14" t="s">
@@ -1690,7 +1687,7 @@
       <c r="I20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
@@ -1703,7 +1700,7 @@
       <c r="D21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="12" t="s">
@@ -1712,13 +1709,13 @@
       <c r="G21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
@@ -1728,11 +1725,11 @@
       <c r="C22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>47</v>
+      <c r="E22" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>9</v>
@@ -1740,7 +1737,7 @@
       <c r="G22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -1759,16 +1756,16 @@
       <c r="D23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -1786,8 +1783,8 @@
       <c r="D24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>47</v>
+      <c r="E24" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>48</v>
@@ -1795,7 +1792,7 @@
       <c r="G24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="28" t="s">
         <v>62</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -1812,15 +1809,21 @@
       <c r="D25" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="G25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="2:17" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -1832,8 +1835,8 @@
       <c r="D26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>47</v>
+      <c r="E26" s="30" t="s">
+        <v>114</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>48</v>
@@ -1841,11 +1844,11 @@
       <c r="G26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="28" t="s">
         <v>62</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="110.25" x14ac:dyDescent="0.25">
@@ -1853,22 +1856,22 @@
         <v>102</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="31" t="s">
-        <v>115</v>
-      </c>
       <c r="F27" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="32" t="s">
-        <v>63</v>
+      <c r="H27" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>12</v>
@@ -1880,21 +1883,21 @@
         <v>103</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="E28" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I28" s="12" t="s">
@@ -1907,21 +1910,21 @@
         <v>104</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="E29" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I29" s="12" t="s">
@@ -1936,22 +1939,22 @@
         <v>105</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="E30" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="32" t="s">
-        <v>63</v>
+      <c r="H30" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>12</v>
@@ -1962,10 +1965,10 @@
         <v>106</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>47</v>
@@ -1976,7 +1979,7 @@
       <c r="G31" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="28" t="s">
         <v>62</v>
       </c>
       <c r="I31" s="12" t="s">
@@ -1988,21 +1991,21 @@
         <v>107</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="E32" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="28" t="s">
         <v>62</v>
       </c>
       <c r="I32" s="12" t="s">
@@ -2014,21 +2017,21 @@
         <v>108</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="E33" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -2037,24 +2040,24 @@
     </row>
     <row r="34" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I34" s="12" t="s">
@@ -2063,24 +2066,24 @@
     </row>
     <row r="35" spans="2:10" ht="63" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="E35" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -2089,38 +2092,38 @@
     </row>
     <row r="36" spans="2:10" ht="63" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="E36" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -2129,43 +2132,43 @@
       <c r="F37" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H37" s="32" t="s">
+      <c r="H37" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>78</v>
       </c>
@@ -2175,42 +2178,42 @@
       <c r="D39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="32" t="s">
+      <c r="H39" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I40" s="12" t="s">
@@ -2219,24 +2222,24 @@
     </row>
     <row r="41" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="E41" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="H41" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I41" s="12" t="s">
@@ -2245,24 +2248,24 @@
     </row>
     <row r="42" spans="2:10" ht="63" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="E42" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I42" s="12" t="s">
@@ -2271,11 +2274,16 @@
       <c r="J42" s="16"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I43" s="17"/>
       <c r="J43" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:I42" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}"/>
+  <autoFilter ref="B3:I42" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="S2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentação do Projeto/PBL - Noctoramento.xlsx
+++ b/Documentação do Projeto/PBL - Noctoramento.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbbbc15b312a8d85/sptech/Sp-tech/Ads2/LP/lista-03-metodos-PedroHPCSouza-1/Área de Trabalho/NocTotamento/Documentacao/Documentação do Projeto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sp-tech\NocToramento\Documentacao\Documentação do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{BCEAEB28-9F87-4258-9A6D-D311B8FD6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A93CAD0-2F08-4F8B-AC62-DBB07D87DD4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061775BF-8BA9-4837-AE82-8E418E5CCD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B0DD404-9F6F-4CBF-B326-486AA060C181}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B0DD404-9F6F-4CBF-B326-486AA060C181}"/>
   </bookViews>
   <sheets>
     <sheet name="PBL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PBL!$B$3:$I$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PBL!$B$3:$I$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="170">
   <si>
     <t>Descrição</t>
   </si>
@@ -466,6 +466,103 @@
   </si>
   <si>
     <t>Integração da API : Listar Info Hardware</t>
+  </si>
+  <si>
+    <t>Interação com o Slack ou Telegram</t>
+  </si>
+  <si>
+    <t>O sistema deve Notificar os alertar via slack ou telegram para o usuário</t>
+  </si>
+  <si>
+    <t>JAR Completo conectado aos BDs (V. Console)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAR que contém tudo o que é necessário para conectar-se a bancos de dados </t>
+  </si>
+  <si>
+    <t>Dashboard Dinâmicas</t>
+  </si>
+  <si>
+    <t>Diagrama de Classes</t>
+  </si>
+  <si>
+    <t>Diagrama de Sequência (HTTP)</t>
+  </si>
+  <si>
+    <t>Representação visual de como as mensagens HTTP são trocadas entre os componentes de um sistema durante uma interação. Ele mostra a ordem cronológica das mensagens HTTP trocadas entre um cliente e um servidor, incluindo solicitações e respostas.</t>
+  </si>
+  <si>
+    <t>Representação visual de classes, interfaces, relacionamentos e atributos em um sistema de software. Ele descreve a estrutura estática do sistema, mostrando as classes e suas associações. Esses diagramas são amplamente utilizados na modelagem orientada a objetos para capturar a estrutura do sistema.</t>
+  </si>
+  <si>
+    <t>VM grupo (Windows, Node, SQL Server)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquina virtual com os siatemas (Windows, Node, SQL Server) instalados </t>
+  </si>
+  <si>
+    <t>Aplicação Web provisionada na nuvem AWS (Windows)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicação Web implantada e configurada em um ambiente de hospedagem, como um servidor web, para estar disponível na internet. Isso envolve a instalação e configuração dos recursos necessários, como servidores web, bancos de dados e outras dependências, para garantir que a aplicação funcione corretamente e esteja acessível aos usuários através de navegadores da web.
+</t>
+  </si>
+  <si>
+    <t>Container | Docker na AWS (Ubunto)</t>
+  </si>
+  <si>
+    <t>Um container Docker é uma unidade de software autônoma que encapsula um aplicativo e todas as suas dependências, tornando-o portátil e consistente em diferentes ambientes de execução. Essa abordagem facilita o desenvolvimento, implantação e escalabilidade de aplicativos de forma rápida e eficiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de Relacionamento de classes </t>
+  </si>
+  <si>
+    <t>Herança</t>
+  </si>
+  <si>
+    <t>Assistente de instalação do Client (Wizard)</t>
+  </si>
+  <si>
+    <t>Interface de usuário que guia os usuários através do processo de instalação de um software ou aplicativo em seus dispositivos</t>
+  </si>
+  <si>
+    <t>Interação entre classes em um sistema orientado a objetos, onde uma classe pode depender ou se relacionar com outra classe. Isso pode ocorrer de várias maneiras, como herança, composição, associação, entre outras formas de interação.</t>
+  </si>
+  <si>
+    <t>Herança em Java permite que uma classe herde características de outra classe, promovendo reutilização de código e organização em hierarquias. É implementada com a palavra-chave extends.</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>R50</t>
   </si>
 </sst>
 </file>
@@ -538,7 +635,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +732,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -724,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,6 +918,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,29 +1271,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:Q43"/>
+  <dimension ref="B2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="67.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="3" max="3" width="34.26953125" customWidth="1"/>
+    <col min="4" max="4" width="67.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>98</v>
       </c>
@@ -1201,7 +1306,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
@@ -1229,7 +1334,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="2:11" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="48" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1245,7 +1350,7 @@
       <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="14" t="s">
@@ -1256,7 +1361,7 @@
       </c>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1272,7 +1377,7 @@
       <c r="F5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="14" t="s">
@@ -1283,7 +1388,7 @@
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1299,7 +1404,7 @@
       <c r="F6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="14" t="s">
@@ -1310,7 +1415,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1431,7 @@
       <c r="F7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="14" t="s">
@@ -1337,7 +1442,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1353,7 +1458,7 @@
       <c r="F8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="14" t="s">
@@ -1364,7 +1469,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1485,7 @@
       <c r="F9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -1391,7 +1496,7 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1407,7 +1512,7 @@
       <c r="F10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="14" t="s">
@@ -1418,7 +1523,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="16" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1434,7 +1539,7 @@
       <c r="F11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="14" t="s">
@@ -1445,7 +1550,7 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1461,7 +1566,7 @@
       <c r="F12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="14" t="s">
@@ -1472,7 +1577,7 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="16" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1488,7 +1593,7 @@
       <c r="F13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="14" t="s">
@@ -1499,7 +1604,7 @@
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1515,7 +1620,7 @@
       <c r="F14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="14" t="s">
@@ -1526,7 +1631,7 @@
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>50</v>
       </c>
@@ -1542,7 +1647,7 @@
       <c r="F15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="14" t="s">
@@ -1553,7 +1658,7 @@
       </c>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="2:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
@@ -1569,7 +1674,7 @@
       <c r="F16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="14" t="s">
@@ -1580,7 +1685,7 @@
       </c>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="2:17" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="32" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
         <v>52</v>
       </c>
@@ -1596,7 +1701,7 @@
       <c r="F17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="14" t="s">
@@ -1607,7 +1712,7 @@
       </c>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="2:17" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" ht="64" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
@@ -1623,7 +1728,7 @@
       <c r="F18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="14" t="s">
@@ -1634,7 +1739,7 @@
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="2:17" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" ht="48" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
         <v>54</v>
       </c>
@@ -1650,7 +1755,7 @@
       <c r="F19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="14" t="s">
@@ -1662,7 +1767,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:17" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="32" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
         <v>55</v>
       </c>
@@ -1678,7 +1783,7 @@
       <c r="F20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="14" t="s">
@@ -1690,7 +1795,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" ht="48" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
         <v>56</v>
       </c>
@@ -1718,9 +1823,9 @@
       <c r="J21" s="18"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" ht="32" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>34</v>
@@ -1746,9 +1851,9 @@
       <c r="J22" s="16"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" ht="48" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>40</v>
@@ -1773,9 +1878,9 @@
       </c>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="2:17" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" ht="96" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>45</v>
@@ -1799,9 +1904,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" ht="64" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>109</v>
@@ -1825,9 +1930,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" ht="96" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>110</v>
@@ -1851,9 +1956,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" ht="96" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>112</v>
@@ -1878,9 +1983,9 @@
       </c>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="2:17" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" ht="64" x14ac:dyDescent="0.35">
       <c r="B28" s="9" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>115</v>
@@ -1905,9 +2010,9 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="2:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>117</v>
@@ -1934,9 +2039,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" ht="112" x14ac:dyDescent="0.35">
       <c r="B30" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>119</v>
@@ -1960,9 +2065,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>121</v>
@@ -1986,9 +2091,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" ht="64" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>123</v>
@@ -2012,9 +2117,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>125</v>
@@ -2038,9 +2143,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="80" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>131</v>
@@ -2064,9 +2169,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="48" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>125</v>
@@ -2090,9 +2195,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="48" x14ac:dyDescent="0.35">
       <c r="B36" s="9" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>125</v>
@@ -2116,9 +2221,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="48" x14ac:dyDescent="0.35">
       <c r="B37" s="9" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>35</v>
@@ -2142,9 +2247,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="48" x14ac:dyDescent="0.35">
       <c r="B38" s="9" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>37</v>
@@ -2168,9 +2273,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="32" x14ac:dyDescent="0.35">
       <c r="B39" s="9" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>43</v>
@@ -2194,9 +2299,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="48" x14ac:dyDescent="0.35">
       <c r="B40" s="9" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>31</v>
@@ -2220,7 +2325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="80" x14ac:dyDescent="0.35">
       <c r="B41" s="9" t="s">
         <v>134</v>
       </c>
@@ -2246,7 +2351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="64" x14ac:dyDescent="0.35">
       <c r="B42" s="9" t="s">
         <v>135</v>
       </c>
@@ -2273,18 +2378,297 @@
       </c>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="16" x14ac:dyDescent="0.35">
+      <c r="B43" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="J43" s="16"/>
     </row>
+    <row r="44" spans="2:10" ht="32" x14ac:dyDescent="0.35">
+      <c r="B44" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="96" x14ac:dyDescent="0.35">
+      <c r="B45" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="80" x14ac:dyDescent="0.35">
+      <c r="B46" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="64" x14ac:dyDescent="0.35">
+      <c r="B47" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="32" x14ac:dyDescent="0.35">
+      <c r="B48" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="80" x14ac:dyDescent="0.35">
+      <c r="B50" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="32" x14ac:dyDescent="0.35">
+      <c r="B51" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="64" x14ac:dyDescent="0.35">
+      <c r="B52" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="48" x14ac:dyDescent="0.35">
+      <c r="B53" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:I42" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="S2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:I53" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentação do Projeto/PBL - Noctoramento.xlsx
+++ b/Documentação do Projeto/PBL - Noctoramento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sp-tech\NocToramento\Documentacao\Documentação do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061775BF-8BA9-4837-AE82-8E418E5CCD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8009DAE2-32E2-4E81-AA44-3E86107319B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B0DD404-9F6F-4CBF-B326-486AA060C181}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="169">
   <si>
     <t>Descrição</t>
   </si>
@@ -436,9 +436,6 @@
   </si>
   <si>
     <t>R35</t>
-  </si>
-  <si>
-    <t>R36</t>
   </si>
   <si>
     <t>R37</t>
@@ -1271,10 +1268,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1334,7 +1332,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="2:11" ht="48" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1359,7 @@
       </c>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="2:11" ht="32" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1386,7 @@
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="2:11" ht="32" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1415,7 +1413,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="2:11" ht="32" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1440,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="2:11" ht="32" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1469,7 +1467,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="2:11" ht="32" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1496,7 +1494,7 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="2:11" ht="32" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1523,7 +1521,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="2:11" ht="16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1550,7 +1548,7 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="2:11" ht="32" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1577,7 +1575,7 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="2:11" ht="16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1604,7 +1602,7 @@
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="2:11" ht="32" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1631,7 +1629,7 @@
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="2:11" ht="32" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>50</v>
       </c>
@@ -1658,7 +1656,7 @@
       </c>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="2:11" ht="32" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
@@ -1685,7 +1683,7 @@
       </c>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="2:17" ht="32" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
         <v>52</v>
       </c>
@@ -1712,7 +1710,7 @@
       </c>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="2:17" ht="64" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="64" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
@@ -1739,7 +1737,7 @@
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="2:17" ht="48" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
         <v>54</v>
       </c>
@@ -1767,7 +1765,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:17" ht="32" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
         <v>55</v>
       </c>
@@ -1795,7 +1793,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="2:17" ht="48" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
         <v>56</v>
       </c>
@@ -1823,7 +1821,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="2:17" ht="32" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" ht="32" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
         <v>57</v>
       </c>
@@ -1851,7 +1849,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="2:17" ht="48" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
         <v>58</v>
       </c>
@@ -1878,7 +1876,7 @@
       </c>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="2:17" ht="96" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" ht="96" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
         <v>76</v>
       </c>
@@ -1904,7 +1902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="64" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="64" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
         <v>77</v>
       </c>
@@ -1930,7 +1928,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="96" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="96" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
         <v>78</v>
       </c>
@@ -1956,7 +1954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="96" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" ht="96" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
         <v>79</v>
       </c>
@@ -1983,7 +1981,7 @@
       </c>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="2:17" ht="64" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" ht="64" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="9" t="s">
         <v>80</v>
       </c>
@@ -2010,7 +2008,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="2:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9" t="s">
         <v>100</v>
       </c>
@@ -2039,7 +2037,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="112" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="9" t="s">
         <v>101</v>
       </c>
@@ -2065,7 +2063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9" t="s">
         <v>102</v>
       </c>
@@ -2091,7 +2089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="64" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" ht="64" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
         <v>103</v>
       </c>
@@ -2117,7 +2115,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -2143,15 +2141,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="80" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" ht="80" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>47</v>
@@ -2169,7 +2167,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="48" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
         <v>106</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="48" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9" t="s">
         <v>107</v>
       </c>
@@ -2231,8 +2229,8 @@
       <c r="D37" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>47</v>
+      <c r="E37" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>48</v>
@@ -2274,9 +2272,7 @@
       </c>
     </row>
     <row r="39" spans="2:10" ht="32" x14ac:dyDescent="0.35">
-      <c r="B39" s="9" t="s">
-        <v>128</v>
-      </c>
+      <c r="B39" s="9"/>
       <c r="C39" s="10" t="s">
         <v>43</v>
       </c>
@@ -2301,7 +2297,7 @@
     </row>
     <row r="40" spans="2:10" ht="48" x14ac:dyDescent="0.35">
       <c r="B40" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>31</v>
@@ -2313,7 +2309,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G40" s="25" t="s">
         <v>60</v>
@@ -2322,18 +2318,18 @@
         <v>63</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="80" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="80" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>47</v>
@@ -2351,15 +2347,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="64" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" ht="64" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>47</v>
@@ -2378,21 +2374,21 @@
       </c>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="2:10" ht="16" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="27" t="s">
         <v>138</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>60</v>
@@ -2401,25 +2397,25 @@
         <v>63</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J43" s="16"/>
     </row>
     <row r="44" spans="2:10" ht="32" x14ac:dyDescent="0.35">
       <c r="B44" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>140</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>141</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G44" s="25" t="s">
         <v>60</v>
@@ -2433,10 +2429,10 @@
     </row>
     <row r="45" spans="2:10" ht="96" x14ac:dyDescent="0.35">
       <c r="B45" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="27" t="s">
         <v>113</v>
@@ -2445,7 +2441,7 @@
         <v>13</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>60</v>
@@ -2459,19 +2455,19 @@
     </row>
     <row r="46" spans="2:10" ht="80" x14ac:dyDescent="0.35">
       <c r="B46" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G46" s="25" t="s">
         <v>60</v>
@@ -2485,19 +2481,19 @@
     </row>
     <row r="47" spans="2:10" ht="64" x14ac:dyDescent="0.35">
       <c r="B47" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>145</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>60</v>
@@ -2511,19 +2507,19 @@
     </row>
     <row r="48" spans="2:10" ht="32" x14ac:dyDescent="0.35">
       <c r="B48" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>148</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G48" s="25" t="s">
         <v>60</v>
@@ -2537,19 +2533,19 @@
     </row>
     <row r="49" spans="2:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>150</v>
-      </c>
       <c r="E49" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>60</v>
@@ -2563,19 +2559,19 @@
     </row>
     <row r="50" spans="2:9" ht="80" x14ac:dyDescent="0.35">
       <c r="B50" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>152</v>
-      </c>
       <c r="E50" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>60</v>
@@ -2587,21 +2583,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="27" t="s">
         <v>155</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>156</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>60</v>
@@ -2615,19 +2611,19 @@
     </row>
     <row r="52" spans="2:9" ht="64" x14ac:dyDescent="0.35">
       <c r="B52" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G52" s="25" t="s">
         <v>60</v>
@@ -2641,19 +2637,19 @@
     </row>
     <row r="53" spans="2:9" ht="48" x14ac:dyDescent="0.35">
       <c r="B53" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>60</v>
@@ -2666,7 +2662,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:I53" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}"/>
+  <autoFilter ref="B3:I53" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="S3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentação do Projeto/PBL - Noctoramento.xlsx
+++ b/Documentação do Projeto/PBL - Noctoramento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sp-tech\NocToramento\Documentacao\Documentação do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8009DAE2-32E2-4E81-AA44-3E86107319B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F82A19-0D46-44E6-9FDE-7C49FA96AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B0DD404-9F6F-4CBF-B326-486AA060C181}"/>
   </bookViews>
@@ -1268,11 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1332,7 +1331,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="2:11" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="48" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1359,7 +1358,7 @@
       </c>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1386,7 +1385,7 @@
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1413,7 +1412,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1440,7 +1439,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1467,7 +1466,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1494,7 +1493,7 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1521,7 +1520,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="2:11" ht="16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="16" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1548,7 +1547,7 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1575,7 +1574,7 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="2:11" ht="16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="16" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1602,7 +1601,7 @@
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1629,7 +1628,7 @@
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>50</v>
       </c>
@@ -1656,7 +1655,7 @@
       </c>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="2:11" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="32" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
@@ -1683,7 +1682,7 @@
       </c>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="2:17" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="32" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
         <v>52</v>
       </c>
@@ -1710,7 +1709,7 @@
       </c>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="2:17" ht="64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="64" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
@@ -1737,7 +1736,7 @@
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="2:17" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="48" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
         <v>54</v>
       </c>
@@ -1765,7 +1764,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:17" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="32" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
         <v>55</v>
       </c>
@@ -1793,7 +1792,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="2:17" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" ht="48" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
         <v>56</v>
       </c>
@@ -1821,7 +1820,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="2:17" ht="32" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" ht="32" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
         <v>57</v>
       </c>
@@ -1849,7 +1848,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="2:17" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" ht="48" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
         <v>58</v>
       </c>
@@ -1876,7 +1875,7 @@
       </c>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="2:17" ht="96" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" ht="96" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
         <v>76</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="64" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
         <v>77</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="96" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="96" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
         <v>78</v>
       </c>
@@ -1954,7 +1953,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="96" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" ht="96" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
         <v>79</v>
       </c>
@@ -1981,7 +1980,7 @@
       </c>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="2:17" ht="64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" ht="64" x14ac:dyDescent="0.35">
       <c r="B28" s="9" t="s">
         <v>80</v>
       </c>
@@ -2008,7 +2007,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="2:17" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9" t="s">
         <v>100</v>
       </c>
@@ -2037,7 +2036,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" ht="112" x14ac:dyDescent="0.35">
       <c r="B30" s="9" t="s">
         <v>101</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9" t="s">
         <v>102</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" ht="64" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
         <v>103</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="80" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" ht="80" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
         <v>105</v>
       </c>
@@ -2167,7 +2166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" ht="48" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
         <v>106</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" ht="48" x14ac:dyDescent="0.35">
       <c r="B36" s="9" t="s">
         <v>107</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="80" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10" ht="80" x14ac:dyDescent="0.35">
       <c r="B41" s="9" t="s">
         <v>133</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" ht="64" x14ac:dyDescent="0.35">
       <c r="B42" s="9" t="s">
         <v>134</v>
       </c>
@@ -2662,13 +2661,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:I53" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="S3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:I53" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
